--- a/PaloAlto.xlsx
+++ b/PaloAlto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacharles\Desktop\work\models\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64F8E864-0646-4903-8CA6-30BF3159C6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F617EBD-86DF-4AE7-B2E8-1995A40D7737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{1C4734DF-B717-4968-BC25-EB650C34A5E4}"/>
+    <workbookView xWindow="1170" yWindow="30" windowWidth="19530" windowHeight="20850" activeTab="1" xr2:uid="{1C4734DF-B717-4968-BC25-EB650C34A5E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -867,7 +867,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B11" sqref="A11:XFD11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
